--- a/Output.xlsx
+++ b/Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuend\IdeaProjects\ttc2019-tt2bdd\solutions\FulibSolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C877E5-61F2-49D5-A418-E79BAEA992C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122F4271-E8C8-4D3D-B6DB-4B462436408A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{03F50048-DC32-423D-80B6-1B5E16891BD6}"/>
+    <workbookView xWindow="-240" yWindow="-240" windowWidth="29280" windowHeight="16680" xr2:uid="{03F50048-DC32-423D-80B6-1B5E16891BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle5" sheetId="5" r:id="rId1"/>
@@ -185,6 +185,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Transformation Runtime</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Results</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -278,22 +308,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.7049800000000001E-2</c:v>
+                  <c:v>3.7238500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8139199999999998E-2</c:v>
+                  <c:v>4.7631699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.11079E-2</c:v>
+                  <c:v>6.1599299000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3879700000000006E-2</c:v>
+                  <c:v>7.2342800999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11681130000000001</c:v>
+                  <c:v>0.13605120100000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17650759999999999</c:v>
+                  <c:v>0.16245680000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,13 +1149,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1063942</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>182245</xdr:rowOff>
+      <xdr:rowOff>185419</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>752231</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>166692</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1491,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDB48CA-17A4-4375-84B6-93710E8D6549}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,14 +1556,14 @@
       </c>
       <c r="B2" s="1">
         <f>output__4[[#This Row],[MetricValue]]/1000000000</f>
-        <v>3.7049800000000001E-2</v>
+        <v>3.7238500000000001E-2</v>
       </c>
       <c r="C2" s="1">
         <f>output__4[[#This Row],[Spalte1]]/1000000000</f>
         <v>0.45773550000000002</v>
       </c>
       <c r="D2" s="2">
-        <v>37049800</v>
+        <v>37238500</v>
       </c>
       <c r="E2" s="2">
         <v>457735500</v>
@@ -1545,11 +1575,11 @@
       </c>
       <c r="B3" s="1">
         <f>output__4[[#This Row],[MetricValue]]/1000000000</f>
-        <v>3.8139199999999998E-2</v>
+        <v>4.7631699999999999E-2</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2">
-        <v>38139200</v>
+        <v>47631700</v>
       </c>
       <c r="E3" s="2">
         <v>40795885900</v>
@@ -1561,11 +1591,11 @@
       </c>
       <c r="B4" s="1">
         <f>output__4[[#This Row],[MetricValue]]/1000000000</f>
-        <v>6.11079E-2</v>
+        <v>6.1599299000000003E-2</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
-        <v>61107900</v>
+        <v>61599299</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1575,11 +1605,11 @@
       </c>
       <c r="B5" s="1">
         <f>output__4[[#This Row],[MetricValue]]/1000000000</f>
-        <v>7.3879700000000006E-2</v>
+        <v>7.2342800999999998E-2</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2">
-        <v>73879700</v>
+        <v>72342801</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1589,11 +1619,11 @@
       </c>
       <c r="B6" s="1">
         <f>output__4[[#This Row],[MetricValue]]/1000000000</f>
-        <v>0.11681130000000001</v>
+        <v>0.13605120100000001</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2">
-        <v>116811300</v>
+        <v>136051201</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1603,11 +1633,11 @@
       </c>
       <c r="B7" s="1">
         <f>output__4[[#This Row],[MetricValue]]/1000000000</f>
-        <v>0.17650759999999999</v>
+        <v>0.16245680000000001</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2">
-        <v>176507600</v>
+        <v>162456800</v>
       </c>
       <c r="E7" s="1"/>
     </row>
